--- a/MachineLearning/LoanDefaultPredict/三门农商银行   方笠 机器学习预测个贷逾期 微课堂脚本.xlsx
+++ b/MachineLearning/LoanDefaultPredict/三门农商银行   方笠 机器学习预测个贷逾期 微课堂脚本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27780" windowHeight="13140"/>
+    <workbookView windowWidth="28060" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="微课脚本-PPT微课示例" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>微课脚本</t>
   </si>
@@ -120,7 +120,7 @@
     <t>为什么需要特征工程</t>
   </si>
   <si>
-    <t>用于分类的指标通常会比较多，如果全部都用，一方面会造成“梯度爆炸”，也就是我们的模型会很复杂，计算机需要花费很长时间去计算。另一方面也可能会造成“过拟合”，就是说模型在预测历史数据时会很准确，但是用来计算新数据时，反而不准确了。</t>
+    <t>用于分类的指标通常会比较多，如果全部都用，一方面会造成“维度诅咒”，也就是我们的模型会很复杂，计算机需要花费很长时间去计算。另一方面也可能会造成“过拟合”，就是说模型在预测历史数据时会很准确，但是用来计算新数据时，反而不准确了。</t>
   </si>
   <si>
     <t>WOE、IV值的计算公式</t>
@@ -284,9 +284,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -312,7 +312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,29 +320,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,24 +340,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -395,21 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -419,17 +387,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,14 +409,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +512,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,43 +554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,67 +602,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,19 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,6 +798,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -815,6 +836,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,6 +870,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -848,204 +895,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,63 +1069,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,26 +1138,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1171,54 +1165,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
@@ -1227,6 +1221,1185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>近三年不良贷款（还原后）情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0306406685236769"/>
+          <c:y val="0.206930449741951"/>
+          <c:w val="0.938718662952646"/>
+          <c:h val="0.55944949619071"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不良余额（还原后）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>不良户数（还原后）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="0"/>
+        <c:axId val="34919030"/>
+        <c:axId val="321665472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="34919030"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321665472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321665472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34919030"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>286385</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198755</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2887980" y="1457325"/>
+        <a:ext cx="5868035" cy="4288790"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1514,12 +2687,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1" outlineLevelCol="5"/>
@@ -1552,10 +2725,10 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -1567,7 +2740,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" ht="33.75" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -1590,336 +2763,336 @@
       </c>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="69.75" customHeight="1" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="63" customHeight="1" spans="1:6">
-      <c r="A7" s="33"/>
-      <c r="B7" s="11">
+      <c r="A7" s="32"/>
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="71.25" customHeight="1" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="108.75" customHeight="1" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="11">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="11" ht="82.5" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17">
+    <row r="11" ht="72" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="148.5" spans="1:6">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18" t="s">
+    <row r="12" ht="159" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" ht="66" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="18" t="s">
+    <row r="13" ht="72" spans="1:6">
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="132" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="11">
+    <row r="14" ht="144" spans="1:6">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9">
         <v>7</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="15" ht="63.75" customHeight="1" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="11">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9">
         <v>8</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="16" ht="51.75" customHeight="1" spans="1:6">
-      <c r="A16" s="19"/>
-      <c r="B16" s="11">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9">
         <v>9</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1" spans="1:6">
-      <c r="A17" s="19"/>
-      <c r="B17" s="11">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9">
         <v>10</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="18" ht="69.75" customHeight="1" spans="1:6">
-      <c r="A18" s="19"/>
-      <c r="B18" s="11">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9">
         <v>11</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="49.5" spans="1:6">
-      <c r="A19" s="19"/>
-      <c r="B19" s="11">
+    <row r="19" ht="58" spans="1:6">
+      <c r="A19" s="16"/>
+      <c r="B19" s="9">
         <v>12</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="20" ht="55.5" customHeight="1" spans="1:6">
-      <c r="A20" s="35"/>
-      <c r="B20" s="11">
+      <c r="A20" s="34"/>
+      <c r="B20" s="9">
         <v>13</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="59.25" customHeight="1" spans="1:6">
-      <c r="A21" s="37"/>
-      <c r="B21" s="11">
+      <c r="A21" s="36"/>
+      <c r="B21" s="9">
         <v>14</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="132" spans="1:6">
-      <c r="A22" s="11" t="s">
+    <row r="22" ht="144" spans="1:6">
+      <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>15</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>45</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>16</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <f t="shared" ref="F23" si="0">ROUND(LEN(E23)/180*60,0)</f>
         <v>3</v>
       </c>
@@ -1943,7 +3116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -1951,7 +3124,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
@@ -1981,10 +3154,10 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" ht="33.75" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -2019,208 +3192,208 @@
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <f>ROUND(LEN(E5)/180*60,0)</f>
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="62.1" customHeight="1" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <f t="shared" ref="F6:F21" si="0">ROUND(LEN(E6)/180*60,0)</f>
         <v>26</v>
       </c>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:6">
-      <c r="A7" s="16"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="102.95" customHeight="1" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="14">
+      <c r="A11" s="16"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:6">
-      <c r="A12" s="19"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="14">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="14">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:6">
-      <c r="A16" s="19"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="14">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="45" customHeight="1" spans="1:6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="14">
+      <c r="A17" s="19"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="14">
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="45" customHeight="1" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="14">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="45" customHeight="1" spans="1:6">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="45" customHeight="1" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14">
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2251,15 +3424,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="10" max="11" width="19.125" customWidth="1"/>
   </cols>
@@ -2448,5 +3621,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>